--- a/计算机应用基础/第4章excel/基础操作/条件格式批注练习.xlsx
+++ b/计算机应用基础/第4章excel/基础操作/条件格式批注练习.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0">
+    <comment ref="D8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0">
+    <comment ref="D16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,52 +370,14 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -464,7 +426,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,7 +461,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -711,7 +673,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
